--- a/va_facility_data_2025-02-20/Wyoming VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wyoming%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wyoming VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wyoming%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re3646963ff53461c9af35fd4f3dd110a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc357c5d901a04788add5219ef6dc0dbe"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R334e3b20f26d47ae869866026de06b4c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1247dc8aef704b98baf3521e787e4444"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R05faee2f0d714f788a132b80d9ff1ad8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R94ddc61137914e3fa7c5037059a61ddc"/>
   </x:sheets>
 </x:workbook>
 </file>
